--- a/src/Tests/Templates/Contracts.xlsx
+++ b/src/Tests/Templates/Contracts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirkov_ro\Documents\GitHub\rx-util-importdata-net-core\src\Tests\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectumDev\rx-util-importdata-net-core\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -834,7 +834,7 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -989,7 +989,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="35">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="S2" s="37" t="s">
         <v>36</v>
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="R3" s="35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="S3" s="37" t="s">
         <v>36</v>
@@ -1126,7 +1126,7 @@
         <v>35</v>
       </c>
       <c r="R4" s="35">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S4" s="37" t="s">
         <v>36</v>
@@ -1190,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="R5" s="35">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="S5" s="37" t="s">
         <v>36</v>
